--- a/data/trans_dic/P44_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en situación de desempleo debido a la COVID-19</t>
+          <t>Población que se encuentra en situación de desempleo debido a la COVID-19 (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,12 +681,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>54,46%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -676,42 +701,57 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>43,93%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,81%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,73; 86,81</t>
+          <t>0,0; 54,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,89</t>
+          <t>0,0; 15,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 54,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 49,27</t>
+          <t>1,43; 13,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,29</t>
+          <t>0,0; 10,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,05</t>
+          <t>0,0; 15,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,06; 71,97</t>
+          <t>0,0; 18,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,41; 36,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,72</t>
+          <t>2,75; 34,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,65</t>
+          <t>0,67; 8,44</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,61</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,05</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,22%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>6,64%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,61; 43,51</t>
+          <t>1,5; 8,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,44; 43,33</t>
+          <t>1,24; 8,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,91; 56,21</t>
+          <t>0,0; 4,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,3; 43,64</t>
+          <t>0,0; 4,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,12; 44,95</t>
+          <t>0,0; 6,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,25; 45,49</t>
+          <t>6,54; 15,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,85; 42,41</t>
+          <t>6,05; 15,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,61; 40,5</t>
+          <t>2,54; 10,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,5; 40,39</t>
+          <t>2,84; 10,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,39; 39,91</t>
+          <t>0,0; 4,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,71; 42,14</t>
+          <t>4,7; 10,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,06; 36,35</t>
+          <t>4,25; 10,27</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 6,17</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,73; 6,12</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 3,75</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>41,31%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>36,47%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,37%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>34,12%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>4,08%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,69; 64,51</t>
+          <t>2,29; 9,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,68; 62,0</t>
+          <t>0,93; 7,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 58,41</t>
+          <t>0,0; 5,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,87</t>
+          <t>0,0; 3,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,57; 44,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,48; 51,08</t>
+          <t>0,57; 5,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,06; 46,05</t>
+          <t>2,23; 8,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,48; 34,79</t>
+          <t>1,06; 7,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,88; 46,98</t>
+          <t>0,55; 4,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,87; 47,99</t>
+          <t>1,03; 7,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,8; 45,03</t>
+          <t>1,61; 6,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,48; 35,21</t>
+          <t>1,92; 6,74</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,06; 5,15</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 3,2</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 3,97</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,31; 53,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,15; 41,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,44; 42,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 33,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,34; 40,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,36; 39,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,04; 37,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,64; 35,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,32; 42,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,91; 36,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,15; 36,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,66; 30,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,78%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,36%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,38%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,39%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,14%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,35; 13,79</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,64; 5,67</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 3,2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,31</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,82</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4,31; 9,25</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,53; 9,92</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 7,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 7,22</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 3,78</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4,55; 10,09</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3,54; 6,9</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 4,45</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 4,02</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 2,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra en situación de desempleo debido a la COVID-19 (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20384</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6132</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5332</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6657</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26516</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8525</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>5332</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6657</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 56062</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19467</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1681; 15976</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14909</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18435</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22700</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6093; 75604</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1829; 22905</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19022</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23772</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13790</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14774</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3051</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7683</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>40756</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>44558</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20358</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22408</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6558</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>54546</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>59331</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>25471</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>25459</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>14241</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5476; 30857</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5329; 34925</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17410</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17675</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 32418</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>25557; 61538</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28092; 71833</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9656; 39280</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10648; 40693</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 21024</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>35552; 78592</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>38004; 91827</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>13037; 46681</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>13422; 47388</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3646; 37667</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14200</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9918</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4982</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1900</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8450</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21162</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10949</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7084</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12609</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>22650</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>31081</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>15931</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>8984</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>12609</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6535; 28120</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3093; 24955</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16110</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10595</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2060; 20064</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9537; 38067</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3666; 25426</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1794; 16229</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4133; 29281</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10396; 39689</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14643; 51329</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6623; 32264</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3066; 19265</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4046; 29908</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>48374</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>28758</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10094</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4951</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7683</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>55338</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>70179</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>36639</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>36149</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19167</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>103712</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>98937</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>46733</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>41100</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>26850</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>25297; 104117</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>14615; 50562</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2306; 24489</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 18205</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 29537</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>37377; 80335</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>46869; 102727</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>22047; 59276</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>21059; 59528</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7860; 41633</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>73850; 163725</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>68148; 132905</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>29078; 71382</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>25257; 64823</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>12525; 54368</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
